--- a/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/Desktop/Temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/git/OJB/main/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBF0B57A-B4BA-A545-8FE9-EB4CDD8944CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35476206-D925-814A-A803-3EF4E9768161}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="800" windowWidth="28040" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
   </bookViews>
   <sheets>
     <sheet name="Oracle DB" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
   <si>
     <t>ARREST</t>
   </si>
@@ -443,13 +443,31 @@
   </si>
   <si>
     <t>FELONY_MISD_TYPE_ID-F</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>NIEM StatuteRepealDate</t>
+  </si>
+  <si>
+    <t>Values of 1,2,3</t>
+  </si>
+  <si>
+    <t>null values</t>
+  </si>
+  <si>
+    <t>Appears to be Statute ID</t>
+  </si>
+  <si>
+    <t>Association</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,29 +506,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="4" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -525,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -544,8 +552,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC4E4D8-A514-1A4E-9E23-373DB4843948}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,7 +880,7 @@
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -896,7 +905,10 @@
       <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -907,7 +919,10 @@
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E3" t="s">
@@ -934,6 +949,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>70</v>
       </c>
@@ -950,7 +968,7 @@
       <c r="C8" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -958,7 +976,7 @@
       <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -966,7 +984,7 @@
       <c r="C10" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -974,7 +992,7 @@
       <c r="C11" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -982,7 +1000,7 @@
       <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E12" t="s">
@@ -993,7 +1011,7 @@
       <c r="C13" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E13" t="s">
@@ -1004,7 +1022,7 @@
       <c r="C14" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E14" t="s">
@@ -1015,7 +1033,7 @@
       <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E15" t="s">
@@ -1026,7 +1044,7 @@
       <c r="C16" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E16" t="s">
@@ -1037,7 +1055,7 @@
       <c r="C17" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E17" t="s">
@@ -1048,7 +1066,7 @@
       <c r="C18" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E18" t="s">
@@ -1059,7 +1077,7 @@
       <c r="C19" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E19" t="s">
@@ -1070,7 +1088,7 @@
       <c r="C20" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E20" t="s">
@@ -1078,6 +1096,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>53</v>
       </c>
@@ -1086,11 +1107,17 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>85</v>
       </c>
@@ -1099,7 +1126,7 @@
       <c r="C24" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1107,10 +1134,16 @@
       <c r="D25" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1125,6 +1158,9 @@
       <c r="D28" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="1" t="s">
@@ -1138,7 +1174,10 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E31" t="s">
@@ -1152,7 +1191,10 @@
       <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1163,7 +1205,7 @@
       <c r="C33" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
@@ -1177,7 +1219,7 @@
       <c r="C34" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
@@ -1191,7 +1233,7 @@
       <c r="C35" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E35" t="s">
@@ -1205,7 +1247,7 @@
       <c r="C36" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1219,7 +1261,7 @@
       <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1230,7 +1272,7 @@
       <c r="C38" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1241,7 +1283,7 @@
       <c r="C39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1252,7 +1294,7 @@
       <c r="C40" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1263,7 +1305,7 @@
       <c r="C41" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1274,7 +1316,7 @@
       <c r="C42" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1285,7 +1327,7 @@
       <c r="C43" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1296,7 +1338,7 @@
       <c r="C44" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1310,7 +1352,7 @@
       <c r="C46" t="s">
         <v>135</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E46" t="s">
@@ -1327,7 +1369,7 @@
       <c r="C47" t="s">
         <v>135</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1338,7 +1380,7 @@
       <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1349,6 +1391,9 @@
       <c r="D49" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
@@ -1375,6 +1420,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
       <c r="D53" s="3" t="s">
         <v>31</v>
       </c>
@@ -1418,18 +1466,26 @@
       <c r="D58" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="10"/>
       <c r="D59" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D60" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
         <v>37</v>
       </c>
@@ -1438,120 +1494,156 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>138</v>
       </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
-      <c r="C65" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s">
+      <c r="C66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
-      <c r="C67" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s">
+      <c r="C69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C71" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
+      <c r="E71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C73" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C74" s="11"/>
+      <c r="D74" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
+      <c r="E74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C75" s="11"/>
+      <c r="D75" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
+      <c r="E75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C76" s="10"/>
+      <c r="D76" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>66</v>
       </c>
@@ -1575,17 +1667,17 @@
       <c r="A85" t="s">
         <v>45</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1606,22 +1698,22 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1634,7 +1726,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E95" t="s">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/git/OJB/main/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35476206-D925-814A-A803-3EF4E9768161}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DEF5933-ACCF-7242-B804-AA87F9AF7B27}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
+    <workbookView xWindow="36040" yWindow="2520" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
   </bookViews>
   <sheets>
     <sheet name="Oracle DB" sheetId="1" r:id="rId1"/>
     <sheet name="Questions 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Questions 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="175">
   <si>
     <t>ARREST</t>
   </si>
@@ -461,13 +462,103 @@
   </si>
   <si>
     <t>Association</t>
+  </si>
+  <si>
+    <t>NIEM Modeling</t>
+  </si>
+  <si>
+    <t>RECORD_TYPE</t>
+  </si>
+  <si>
+    <t>Was "ignore" in SQL documentation</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>Arrest</t>
+  </si>
+  <si>
+    <t>"Booking Agency" is currently not in the Oracle DB</t>
+  </si>
+  <si>
+    <t>SID is currently not in the Oracle DB</t>
+  </si>
+  <si>
+    <t>Which Felony-Midemeanor Element?</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>DISPOSITION_TYPE: Long Name</t>
+  </si>
+  <si>
+    <t>Concatenate with "-"</t>
+  </si>
+  <si>
+    <t>Mock Element Name</t>
+  </si>
+  <si>
+    <t>Modeling Notes</t>
+  </si>
+  <si>
+    <t>Filing Date</t>
+  </si>
+  <si>
+    <t>Disposition Code</t>
+  </si>
+  <si>
+    <t>Disposition Date</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>What are the values for "FELONY_MISDEMEANOR" in the DB?  (currently all null)</t>
+  </si>
+  <si>
+    <t>Gen Offense Code (D)</t>
+  </si>
+  <si>
+    <t>Original Statute</t>
+  </si>
+  <si>
+    <t>Can we get a value for "Original Statute" and "Original Statute Description" for the screen shot?</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Should "Name Used" on the screen shot be the same name as the "First" and "Last" at the top of the screen?</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>Is "Gen Offense" on the screen shot a description of the General Offense or a Code?  What does this map to in the DB?</t>
+  </si>
+  <si>
+    <t>We will need a populated Charge table in the DB to determine the correct mapping of "Charge Id" and "Charge" in the screen shot</t>
+  </si>
+  <si>
+    <t>What does  "Charge at Arrest" map to in the DB?... We will need a populate Charge table.</t>
+  </si>
+  <si>
+    <t>Does "Reason for Dismis." in the screen shot map to "DISPOSITION_REASON" in the DB?</t>
+  </si>
+  <si>
+    <t>On the screen shot, it looks like the "Statute Description" is actually the "Statute number"?  Can we confirm with sample values for each?</t>
+  </si>
+  <si>
+    <t>"conviction" on the screen shot maps to "CONVICTION" in the DB which has values of "F" and "M".  Is this Correct?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,6 +597,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -533,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,6 +653,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,36 +991,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC4E4D8-A514-1A4E-9E23-373DB4843948}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="74.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="44" style="16" customWidth="1"/>
+    <col min="8" max="8" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="D1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -908,11 +1045,17 @@
       <c r="C2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -922,818 +1065,1025 @@
       <c r="C3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="20"/>
+      <c r="H4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="9" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="F7" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="3" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D25" s="1" t="s">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F26" s="20"/>
+      <c r="H26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="1" t="s">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F27" s="20"/>
+      <c r="H27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D27" s="3" t="s">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="1" t="s">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F29" s="20"/>
+      <c r="H29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="1" t="s">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>35</v>
       </c>
-      <c r="C47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F52" s="20"/>
+      <c r="H52" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="1" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+      <c r="F55" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D54" s="9" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E57" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="9" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="9" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E59" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D57" s="9" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F61" s="20"/>
+      <c r="H61" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C59" s="10"/>
-      <c r="D59" s="3" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C60" s="3" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C61" s="3"/>
-      <c r="D61" s="9" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C62" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="1" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="F65" s="20"/>
+      <c r="H65" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="C66" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
-      <c r="C67" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C68" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C71" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="2"/>
+      <c r="C73" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C74" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C75" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C73" s="3" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C76" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C74" s="11"/>
-      <c r="D74" s="3" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C75" s="11"/>
-      <c r="D75" s="3" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H78" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C76" s="10"/>
-      <c r="D76" s="3" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H79" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>45</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D86" s="3" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E89" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D87" s="3" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E90" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D88" s="9" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E91" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D89" s="9" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E92" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D90" s="3" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E93" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D91" s="3" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E94" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D92" s="3" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E95" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D93" s="3" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E96" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D94" s="9" t="s">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E97" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D95" s="9" t="s">
+    <row r="98" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E98" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1742,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9C2DDF-733E-7542-8F70-645A5BC69CD5}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1951,4 +2301,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146EAC5-3CB9-9549-913D-2BD63BE4C2BE}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="128.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/git/OJB/main/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{96FA7C7B-E471-064C-8A5B-B0B2846C658C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EEFE8A8D-53F6-B74E-A127-15C4C65F4D48}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="860" windowWidth="32340" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
+    <workbookView xWindow="34480" yWindow="1800" windowWidth="28800" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipal Court" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="209">
   <si>
     <t>ARREST</t>
   </si>
@@ -658,6 +658,12 @@
   </si>
   <si>
     <t>Populate and Modifiable ?</t>
+  </si>
+  <si>
+    <t>NEED DB ELEMENT</t>
+  </si>
+  <si>
+    <t>USE LAST, FIRST</t>
   </si>
 </sst>
 </file>
@@ -760,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -849,10 +855,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1171,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC4E4D8-A514-1A4E-9E23-373DB4843948}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,7 +1256,7 @@
       <c r="D4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>109</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -1649,8 +1658,16 @@
       <c r="B37" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="32" t="s">
+        <v>208</v>
+      </c>
       <c r="G37" s="3" t="s">
         <v>183</v>
       </c>
@@ -1659,8 +1676,16 @@
       <c r="B38" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="32" t="s">
+        <v>207</v>
+      </c>
       <c r="G38" s="3" t="s">
         <v>154</v>
       </c>
@@ -2307,55 +2332,55 @@
       <c r="A106" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
     </row>
     <row r="107" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
     </row>
     <row r="108" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
     </row>
     <row r="110" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
     </row>
     <row r="112" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/git/OJB/main/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EEFE8A8D-53F6-B74E-A127-15C4C65F4D48}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6AA1B590-8912-0D4E-9F09-A4F56921F922}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="1800" windowWidth="28800" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
+    <workbookView xWindow="540" yWindow="1160" windowWidth="28800" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipal Court" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="241">
   <si>
     <t>ARREST</t>
   </si>
@@ -449,9 +449,6 @@
     <t>Disposition</t>
   </si>
   <si>
-    <t>DISPOSITION_TYPE: Long Name</t>
-  </si>
-  <si>
     <t>What are the values for "FELONY_MISDEMEANOR" in the DB?  (currently all null)</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
   </si>
   <si>
     <t>Update SENTENCE_DATE on spreadsheet</t>
-  </si>
-  <si>
-    <t>Charge at Disposition?</t>
   </si>
   <si>
     <t>NIEM</t>
@@ -615,15 +609,6 @@
     <t>ARREST.SEX</t>
   </si>
   <si>
-    <t>Charge at Arrest?</t>
-  </si>
-  <si>
-    <t>General Offense</t>
-  </si>
-  <si>
-    <t>...OFFENSE_TYPE.LONG_NAME</t>
-  </si>
-  <si>
     <t>At the request of the municipal court clerks we spoke to, we will be making this field available to them.  We will establish  a list of possible “reasons.”  This will be a dropdown where we will need to be able to control the values.</t>
   </si>
   <si>
@@ -664,6 +649,117 @@
   </si>
   <si>
     <t>USE LAST, FIRST</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>1 or 2</t>
+  </si>
+  <si>
+    <t>CHARGE.GENERAL_OFFENSE_TYPE_ID</t>
+  </si>
+  <si>
+    <t>21,14,18</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>OJBC NIEM Mapping</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/nc:Case/nc:ActivityIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Subject/nc:RoleOfPerson/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Subject/nc:RoleOfPerson/nc:PersonName/nc:PersonGivenName</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Subject/nc:RoleOfPerson/nc:PersonName/nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Subject/nc:RoleOfPerson/nc:PersonName/nc:PersonFullName</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Subject/nc:RoleOfPerson/j:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Subject/nc:RoleOfPerson/j:PersonSexCode</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Subject/nc:RoleOfPerson/nc:PersonSSNIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Subject/j:SubjectIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/nc:Disposition/nc:DispositionDate/nc:Date</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/nc:Disposition/nc:DispositionReasonText</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/nc:Disposition/chsres-ext:ConvictionCategory/chsres-ext:CategoryShortName</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/nc:Disposition/chsres-ext:DispositionCategory/chsres-ext:CategoryLongName</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/nc:Disposition/chsres-ext:DispositionFiledDate/nc:Date</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/nc:Disposition/chsres-ext:DispositionCharge/chsres-ext:ChargeCategory/chsres-ext:CategoryLongName</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Sentence/j:SentenceDeferredTerm/j:TermDuration</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Sentence/j:SentenceSuspendedTerm/j:TermDuration</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Sentence/j:CourtCostAmount/nc:Amount</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Restitution/nc:ObligationDueAmount/nc:Amount</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Restitution/j:ObligationAugmentation/j:ObligationSuspendedAmount/nc:Amount</t>
+  </si>
+  <si>
+    <t>CHARGE.CHARGE_TYPE_ID/CHARGETYPE.LONG_NAME</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Charge/chsres-ext:ChargeCategory/chsres-ext:CategoryLongName</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Charge/chsres-ext:GeneralOffenseCategoryIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Arrest/nc:ActivityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Arrest/chsres-ext:ActionCodeText</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Arrest/chsres-ext:RecordCategoryIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/nc:Case/j:CaseAugmentation/j:CaseCourt/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>CHARGE.FELONY_MISDEMEANOR/FELONY_MISD_TYPE/LONG_NAME</t>
+  </si>
+  <si>
+    <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Charge/chsres-ext:FelonyMisdemeanorCategory/chsres-ext:CategoryLongName</t>
   </si>
 </sst>
 </file>
@@ -710,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,12 +828,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -804,13 +894,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,15 +905,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -849,19 +924,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1178,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC4E4D8-A514-1A4E-9E23-373DB4843948}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,32 +1269,39 @@
     <col min="3" max="3" width="8.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="44" style="7" customWidth="1"/>
-    <col min="6" max="6" width="70" style="7" customWidth="1"/>
+    <col min="6" max="6" width="71.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="74.6640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="10"/>
+    <col min="8" max="8" width="112" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D1" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>162</v>
+      <c r="F1" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
@@ -1229,50 +1314,56 @@
       <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="D3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C4" s="10">
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>164</v>
+      <c r="F4" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C6" s="10">
         <v>0</v>
       </c>
@@ -1282,379 +1373,443 @@
       <c r="E6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D7" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="H8" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="H10" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="H11" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="H13" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="H14" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="17" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="H19" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
+      <c r="H20" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D23" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E26" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="10">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="E26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E30" s="9"/>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="17" t="s">
+      <c r="E32" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E29" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E30" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E31" s="9"/>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="H33" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="17" t="s">
+      <c r="E34" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="17" t="s">
+      <c r="G34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="17" t="s">
+      <c r="H35" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>152</v>
       </c>
@@ -1664,731 +1819,753 @@
       <c r="D37" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D55" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="10">
-        <v>0</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="H56" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D57" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C63" s="10">
+        <v>0</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D64" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D65" s="7"/>
+      <c r="E65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D67" s="7"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="26"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C55" s="10">
-        <v>0</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D56" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C57" s="10">
-        <v>0</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D58" s="10" t="s">
+      <c r="D69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D72" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E59" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="27"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E60" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="27"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E61" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="27"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E62" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="27"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" s="26"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C64" s="10">
-        <v>0</v>
-      </c>
-      <c r="D64" s="14" t="s">
+      <c r="E73" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D75" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="7" t="s">
+      <c r="E75" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D76" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="17"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D66" s="7"/>
-      <c r="E66" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="27"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D67" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D68" s="7"/>
-      <c r="F68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="17"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D73" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F74" s="17"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F75" s="17"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D76" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="E76" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F76" s="15"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D77" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="17"/>
+        <v>123</v>
+      </c>
+      <c r="F77" s="15"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D78" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="D78" s="15"/>
       <c r="E78" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F78" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D79" s="17"/>
+      <c r="D79" s="15"/>
       <c r="E79" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F79" s="17"/>
+        <v>125</v>
+      </c>
+      <c r="F79" s="15"/>
       <c r="G79" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D80" s="17"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F80" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="F80" s="15"/>
       <c r="G80" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D81" s="14"/>
-      <c r="E81" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="A81" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="F81" s="15"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="F82" s="17"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="F83" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="F83" s="15"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F84" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="F84" s="15"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F85" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="F85" s="15"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F86" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="F86" s="15"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="F87" s="15"/>
+      <c r="G87" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="F88" s="15"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F89" s="17"/>
+      <c r="A89" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" s="15"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="E90" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F90" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="F90" s="15"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E91" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="F91" s="15"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E92" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F92" s="17"/>
+      <c r="E92" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" s="22"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E93" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F93" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E94" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F94" s="27"/>
+      <c r="E94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="15"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E95" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="F95" s="15"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E96" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="F96" s="15"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E97" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F97" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="F97" s="15"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E98" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" s="17"/>
+      <c r="E98" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="22"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E99" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" s="27"/>
+        <v>87</v>
+      </c>
+      <c r="F99" s="22"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E100" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F100" s="27"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100" s="15"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="23"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="19"/>
+      <c r="B102" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F101" s="17"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="22"/>
-      <c r="B102" s="10" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="28"/>
-      <c r="B104" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+    </row>
+    <row r="106" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+    </row>
+    <row r="107" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+    </row>
+    <row r="109" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+    </row>
+    <row r="111" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B106" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-    </row>
-    <row r="107" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-    </row>
-    <row r="108" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-    </row>
-    <row r="110" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-    </row>
-    <row r="112" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="B105:F105"/>
     <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A107:F107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2626,7 +2803,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2634,7 +2811,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2644,7 +2821,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>137</v>
@@ -2652,12 +2829,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2665,32 +2842,32 @@
         <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/osbi-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/git/OJB/main/shared/ojb-resources-common/src/main/resources/ssp/Criminal_History_Search_Results/artifacts/service_model/information_model/IEPD/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6AA1B590-8912-0D4E-9F09-A4F56921F922}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02DE0992-60F5-3C46-BAD3-6ACA8C2548F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1160" windowWidth="28800" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
+    <workbookView xWindow="31260" yWindow="1120" windowWidth="28800" windowHeight="17040" xr2:uid="{66436120-2B3D-1246-B5B4-D444AC8F2095}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipal Court" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="245">
   <si>
     <t>ARREST</t>
   </si>
@@ -531,9 +531,6 @@
     <t>DISPOSITION.FILED_DATE</t>
   </si>
   <si>
-    <t>DISPOSITION.DISPOSITION_CODE/DISPOSITION_TYPE.LONG_NAME</t>
-  </si>
-  <si>
     <t>DISPOSITION.DISPOSITION_DATE</t>
   </si>
   <si>
@@ -760,6 +757,21 @@
   </si>
   <si>
     <t>chsres-doc:CriminalHistorySearchResults/chsres-ext:CriminalHistorySearchResult/j:Charge/chsres-ext:FelonyMisdemeanorCategory/chsres-ext:CategoryLongName</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTERNATE SENTENCE </t>
+  </si>
+  <si>
+    <t>DISPOSITION.DISPOSITION_CODE[/DISPOSITION_TYPE.LONG_NAME]</t>
+  </si>
+  <si>
+    <t>DISPOSITION.DEFERRED_DATE</t>
+  </si>
+  <si>
+    <t>DISPOSITION.PROVISION</t>
   </si>
 </sst>
 </file>
@@ -936,11 +948,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC4E4D8-A514-1A4E-9E23-373DB4843948}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,7 +1295,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>156</v>
@@ -1295,10 +1307,10 @@
         <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1324,7 +1336,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>130</v>
@@ -1334,7 +1346,7 @@
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -1354,7 +1366,7 @@
         <v>161</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1380,11 +1392,11 @@
         <v>154</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="10">
+      <c r="C7" s="18">
         <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1394,31 +1406,31 @@
         <v>110</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="10">
+      <c r="C8" s="18">
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>155</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -1432,17 +1444,17 @@
         <v>111</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="10">
+      <c r="C10" s="18">
         <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1452,14 +1464,14 @@
         <v>72</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="10">
+      <c r="C11" s="18">
         <v>0</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1469,14 +1481,14 @@
         <v>73</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="10">
+      <c r="C12" s="18">
         <v>0</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1486,17 +1498,17 @@
         <v>74</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="10">
+      <c r="C13" s="18">
         <v>0</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1506,14 +1518,14 @@
         <v>75</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="10">
+      <c r="C14" s="18">
         <v>0</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1523,10 +1535,10 @@
         <v>76</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1548,35 +1560,35 @@
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="10">
+      <c r="C17" s="18">
         <v>0</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="10">
+      <c r="C19" s="18">
         <v>0</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1586,14 +1598,14 @@
         <v>81</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="10">
+      <c r="C20" s="18">
         <v>0</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1603,20 +1615,28 @@
         <v>82</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22" s="10" t="s">
@@ -1637,13 +1657,21 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0</v>
+      </c>
       <c r="D24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E25" s="9" t="s">
@@ -1652,7 +1680,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="10">
+      <c r="C26" s="18">
         <v>0</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1662,13 +1690,13 @@
         <v>113</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,17 +1740,17 @@
       <c r="D32" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1738,14 +1766,14 @@
       <c r="D33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1755,17 +1783,17 @@
       <c r="D34" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="27" t="s">
         <v>134</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1778,14 +1806,14 @@
       <c r="D35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1798,15 +1826,15 @@
       <c r="D36" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1819,22 +1847,22 @@
       <c r="D37" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>153</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="18">
         <v>0</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -1844,10 +1872,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1869,20 +1897,20 @@
       <c r="B40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="18">
         <v>0</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1904,7 +1932,7 @@
       <c r="B42" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="18">
         <v>0</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -1914,17 +1942,17 @@
         <v>58</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="18">
         <v>0</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -1934,10 +1962,10 @@
         <v>59</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1956,7 +1984,7 @@
       <c r="B45" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="18">
         <v>0</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -1966,17 +1994,17 @@
         <v>7</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="18">
         <v>0</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -1986,10 +2014,10 @@
         <v>6</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2002,14 +2030,14 @@
       <c r="D47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2022,14 +2050,14 @@
       <c r="D48" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2097,13 +2125,13 @@
         <v>126</v>
       </c>
       <c r="F54" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2122,17 +2150,17 @@
       <c r="D56" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H56" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2184,14 +2212,14 @@
       <c r="D63" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="27" t="s">
         <v>32</v>
       </c>
       <c r="F63" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2405,7 +2433,7 @@
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2502,62 +2530,62 @@
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="23"/>
       <c r="B103" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
+        <v>194</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
     </row>
     <row r="106" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
+        <v>193</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
     </row>
     <row r="107" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+    </row>
+    <row r="109" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+    </row>
+    <row r="111" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-    </row>
-    <row r="109" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-    </row>
-    <row r="111" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
